--- a/3rd_experiment/EE.experiment/m20060/experoment/ex34.xlsx
+++ b/3rd_experiment/EE.experiment/m20060/experoment/ex34.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20386"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10520"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\student\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sugiyamakouta/Desktop/workDir/3rd_experiment/EE.experiment/m20060/experoment/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{800A8CB1-1F5D-436D-8B1E-2FECF9FF3863}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E30D061-CB6B-4C44-AD97-D40C0D0070B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8964" xr2:uid="{648B5474-3E62-43CB-BEE6-B2EBE6015535}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16220" activeTab="2" xr2:uid="{648B5474-3E62-43CB-BEE6-B2EBE6015535}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -27,7 +28,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1551,16 +1552,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45D87619-B679-4564-9602-4C4F7399BBC6}">
   <dimension ref="A1:F21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E1" sqref="E1:F21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="18"/>
   <cols>
-    <col min="6" max="6" width="9.8984375" customWidth="1"/>
+    <col min="6" max="6" width="9.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:6">
       <c r="A1">
         <v>0</v>
       </c>
@@ -1580,7 +1581,7 @@
         <v>1.2207030000000001E-6</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:6">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1600,7 +1601,7 @@
         <v>-3.6621090000000001E-6</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:6">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1620,7 +1621,7 @@
         <v>-1.2207030000000001E-6</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:6">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1640,7 +1641,7 @@
         <v>2.4414060000000002E-6</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:6">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1660,7 +1661,7 @@
         <v>-1.2207030000000001E-6</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:6">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1680,7 +1681,7 @@
         <v>1.2207030000000001E-6</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:6">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1700,7 +1701,7 @@
         <v>1.2207030000000001E-6</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:6">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1720,7 +1721,7 @@
         <v>1.2207030000000001E-6</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:6">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1740,7 +1741,7 @@
         <v>2.4414060000000002E-6</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:6">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1760,7 +1761,7 @@
         <v>2.4414060000000002E-6</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:6">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1780,7 +1781,7 @@
         <v>3.6621090000000001E-6</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:6">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1800,7 +1801,7 @@
         <v>4.8828120000000004E-6</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:6">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1820,7 +1821,7 @@
         <v>3.6621090000000001E-6</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:6">
       <c r="A14">
         <v>13</v>
       </c>
@@ -1840,7 +1841,7 @@
         <v>6.1035150000000003E-6</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:6">
       <c r="A15">
         <v>14</v>
       </c>
@@ -1860,7 +1861,7 @@
         <v>3.6621090000000001E-6</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:6">
       <c r="A16">
         <v>15</v>
       </c>
@@ -1880,7 +1881,7 @@
         <v>1.2207030000000001E-6</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:6">
       <c r="A17">
         <v>16</v>
       </c>
@@ -1900,7 +1901,7 @@
         <v>4.8828120000000004E-6</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:6">
       <c r="A18">
         <v>17</v>
       </c>
@@ -1920,7 +1921,7 @@
         <v>1.2207030000000001E-6</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:6">
       <c r="A19">
         <v>18</v>
       </c>
@@ -1940,7 +1941,7 @@
         <v>2.4414060000000002E-6</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:6">
       <c r="A20">
         <v>19</v>
       </c>
@@ -1960,7 +1961,7 @@
         <v>8.5449209999999992E-6</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:6">
       <c r="A21">
         <v>20</v>
       </c>
@@ -1991,13 +1992,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D3B4CB0-0C76-4EFE-8C48-367B1757E102}">
   <dimension ref="A1:F21"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E1" sqref="E1:F21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="18"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:6">
       <c r="A1">
         <v>0</v>
       </c>
@@ -2017,7 +2018,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:6">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2037,7 +2038,7 @@
         <v>5.2490230000000003E-5</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:6">
       <c r="A3">
         <v>2</v>
       </c>
@@ -2057,7 +2058,7 @@
         <v>1.01E-4</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:6">
       <c r="A4">
         <v>3</v>
       </c>
@@ -2077,7 +2078,7 @@
         <v>1.56E-4</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:6">
       <c r="A5">
         <v>4</v>
       </c>
@@ -2097,7 +2098,7 @@
         <v>2.0599999999999999E-4</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:6">
       <c r="A6">
         <v>5</v>
       </c>
@@ -2117,7 +2118,7 @@
         <v>2.6699999999999998E-4</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:6">
       <c r="A7">
         <v>6</v>
       </c>
@@ -2137,7 +2138,7 @@
         <v>3.1700000000000001E-4</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:6">
       <c r="A8">
         <v>7</v>
       </c>
@@ -2157,7 +2158,7 @@
         <v>3.8099999999999999E-4</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:6">
       <c r="A9">
         <v>8</v>
       </c>
@@ -2177,7 +2178,7 @@
         <v>4.28E-4</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:6">
       <c r="A10">
         <v>9</v>
       </c>
@@ -2197,7 +2198,7 @@
         <v>4.9200000000000003E-4</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:6">
       <c r="A11">
         <v>10</v>
       </c>
@@ -2217,7 +2218,7 @@
         <v>5.4900000000000001E-4</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:6">
       <c r="A12">
         <v>11</v>
       </c>
@@ -2237,7 +2238,7 @@
         <v>6.1499999999999999E-4</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:6">
       <c r="A13">
         <v>12</v>
       </c>
@@ -2257,7 +2258,7 @@
         <v>6.7000000000000002E-4</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:6">
       <c r="A14">
         <v>13</v>
       </c>
@@ -2277,7 +2278,7 @@
         <v>7.2999999999999996E-4</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:6">
       <c r="A15">
         <v>14</v>
       </c>
@@ -2297,7 +2298,7 @@
         <v>7.9299999999999998E-4</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:6">
       <c r="A16">
         <v>15</v>
       </c>
@@ -2317,7 +2318,7 @@
         <v>8.5400000000000005E-4</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:6">
       <c r="A17">
         <v>16</v>
       </c>
@@ -2337,7 +2338,7 @@
         <v>9.1799999999999998E-4</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:6">
       <c r="A18">
         <v>17</v>
       </c>
@@ -2357,7 +2358,7 @@
         <v>9.8400000000000007E-4</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:6">
       <c r="A19">
         <v>18</v>
       </c>
@@ -2377,7 +2378,7 @@
         <v>1.0510000000000001E-3</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:6">
       <c r="A20">
         <v>19</v>
       </c>
@@ -2397,7 +2398,7 @@
         <v>1.1169999999999999E-3</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:6">
       <c r="A21">
         <v>20</v>
       </c>
@@ -2414,6 +2415,316 @@
         <v>3.8085930000000001</v>
       </c>
       <c r="F21">
+        <v>1.1839999999999999E-3</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6AF6967-2E93-164B-9827-BA08E26EFA54}">
+  <dimension ref="A1:D21"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:D21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1">
+        <v>7.3239999999999998E-3</v>
+      </c>
+      <c r="B1" s="1">
+        <v>1.2207030000000001E-6</v>
+      </c>
+      <c r="C1">
+        <v>7.3239999999999998E-3</v>
+      </c>
+      <c r="D1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2">
+        <v>0.24902299999999999</v>
+      </c>
+      <c r="B2" s="1">
+        <v>-3.6621090000000001E-6</v>
+      </c>
+      <c r="C2">
+        <v>0.19531200000000001</v>
+      </c>
+      <c r="D2" s="1">
+        <v>5.2490230000000003E-5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3">
+        <v>0.49804700000000002</v>
+      </c>
+      <c r="B3" s="1">
+        <v>-1.2207030000000001E-6</v>
+      </c>
+      <c r="C3">
+        <v>0.39672800000000003</v>
+      </c>
+      <c r="D3">
+        <v>1.01E-4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4">
+        <v>0.74462899999999999</v>
+      </c>
+      <c r="B4" s="1">
+        <v>2.4414060000000002E-6</v>
+      </c>
+      <c r="C4">
+        <v>0.58837899999999999</v>
+      </c>
+      <c r="D4">
+        <v>1.56E-4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5">
+        <v>0.99609400000000003</v>
+      </c>
+      <c r="B5" s="1">
+        <v>-1.2207030000000001E-6</v>
+      </c>
+      <c r="C5">
+        <v>0.78735299999999997</v>
+      </c>
+      <c r="D5">
+        <v>2.0599999999999999E-4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6">
+        <v>1.2463379999999999</v>
+      </c>
+      <c r="B6" s="1">
+        <v>1.2207030000000001E-6</v>
+      </c>
+      <c r="C6">
+        <v>0.98022500000000001</v>
+      </c>
+      <c r="D6">
+        <v>2.6699999999999998E-4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7">
+        <v>1.4953609999999999</v>
+      </c>
+      <c r="B7" s="1">
+        <v>1.2207030000000001E-6</v>
+      </c>
+      <c r="C7">
+        <v>1.176758</v>
+      </c>
+      <c r="D7">
+        <v>3.1700000000000001E-4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8">
+        <v>1.7456050000000001</v>
+      </c>
+      <c r="B8" s="1">
+        <v>1.2207030000000001E-6</v>
+      </c>
+      <c r="C8">
+        <v>1.3671869999999999</v>
+      </c>
+      <c r="D8">
+        <v>3.8099999999999999E-4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9">
+        <v>1.994629</v>
+      </c>
+      <c r="B9" s="1">
+        <v>2.4414060000000002E-6</v>
+      </c>
+      <c r="C9">
+        <v>1.5661620000000001</v>
+      </c>
+      <c r="D9">
+        <v>4.28E-4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10">
+        <v>2.2448730000000001</v>
+      </c>
+      <c r="B10" s="1">
+        <v>2.4414060000000002E-6</v>
+      </c>
+      <c r="C10">
+        <v>1.7541500000000001</v>
+      </c>
+      <c r="D10">
+        <v>4.9200000000000003E-4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11">
+        <v>2.4938959999999999</v>
+      </c>
+      <c r="B11" s="1">
+        <v>3.6621090000000001E-6</v>
+      </c>
+      <c r="C11">
+        <v>1.9458009999999999</v>
+      </c>
+      <c r="D11">
+        <v>5.4900000000000001E-4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12">
+        <v>2.7441399999999998</v>
+      </c>
+      <c r="B12" s="1">
+        <v>4.8828120000000004E-6</v>
+      </c>
+      <c r="C12">
+        <v>2.132568</v>
+      </c>
+      <c r="D12">
+        <v>6.1499999999999999E-4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13">
+        <v>2.9943840000000002</v>
+      </c>
+      <c r="B13" s="1">
+        <v>3.6621090000000001E-6</v>
+      </c>
+      <c r="C13">
+        <v>2.32666</v>
+      </c>
+      <c r="D13">
+        <v>6.7000000000000002E-4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14">
+        <v>3.2421869999999999</v>
+      </c>
+      <c r="B14" s="1">
+        <v>6.1035150000000003E-6</v>
+      </c>
+      <c r="C14">
+        <v>2.5158689999999999</v>
+      </c>
+      <c r="D14">
+        <v>7.2999999999999996E-4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15">
+        <v>3.493652</v>
+      </c>
+      <c r="B15" s="1">
+        <v>3.6621090000000001E-6</v>
+      </c>
+      <c r="C15">
+        <v>2.702636</v>
+      </c>
+      <c r="D15">
+        <v>7.9299999999999998E-4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16">
+        <v>3.745117</v>
+      </c>
+      <c r="B16" s="1">
+        <v>1.2207030000000001E-6</v>
+      </c>
+      <c r="C16">
+        <v>2.890625</v>
+      </c>
+      <c r="D16">
+        <v>8.5400000000000005E-4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17">
+        <v>3.9929199999999998</v>
+      </c>
+      <c r="B17" s="1">
+        <v>4.8828120000000004E-6</v>
+      </c>
+      <c r="C17">
+        <v>3.0786129999999998</v>
+      </c>
+      <c r="D17">
+        <v>9.1799999999999998E-4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18">
+        <v>4.2443840000000002</v>
+      </c>
+      <c r="B18" s="1">
+        <v>1.2207030000000001E-6</v>
+      </c>
+      <c r="C18">
+        <v>3.2617180000000001</v>
+      </c>
+      <c r="D18">
+        <v>9.8400000000000007E-4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19">
+        <v>4.4921870000000004</v>
+      </c>
+      <c r="B19" s="1">
+        <v>2.4414060000000002E-6</v>
+      </c>
+      <c r="C19">
+        <v>3.443603</v>
+      </c>
+      <c r="D19">
+        <v>1.0510000000000001E-3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20">
+        <v>4.7399899999999997</v>
+      </c>
+      <c r="B20" s="1">
+        <v>8.5449209999999992E-6</v>
+      </c>
+      <c r="C20">
+        <v>3.626709</v>
+      </c>
+      <c r="D20">
+        <v>1.1169999999999999E-3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21">
+        <v>4.9902340000000001</v>
+      </c>
+      <c r="B21" s="1">
+        <v>4.8828120000000004E-6</v>
+      </c>
+      <c r="C21">
+        <v>3.8085930000000001</v>
+      </c>
+      <c r="D21">
         <v>1.1839999999999999E-3</v>
       </c>
     </row>
